--- a/Public.xlsx
+++ b/Public.xlsx
@@ -30860,7 +30860,7 @@
         <v>0</v>
       </c>
       <c r="E1449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1450">
@@ -30881,7 +30881,7 @@
         <v>0</v>
       </c>
       <c r="E1450" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1451">
@@ -30902,7 +30902,7 @@
         <v>0</v>
       </c>
       <c r="E1451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1452">
@@ -30923,7 +30923,7 @@
         <v>0</v>
       </c>
       <c r="E1452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1453">
@@ -30944,7 +30944,7 @@
         <v>0</v>
       </c>
       <c r="E1453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1454">
@@ -30965,7 +30965,7 @@
         <v>0</v>
       </c>
       <c r="E1454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1455">
@@ -30986,7 +30986,7 @@
         <v>0</v>
       </c>
       <c r="E1455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1456">
@@ -31007,7 +31007,7 @@
         <v>0</v>
       </c>
       <c r="E1456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1457">
@@ -31028,7 +31028,7 @@
         <v>0</v>
       </c>
       <c r="E1457" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1458">
@@ -31049,7 +31049,7 @@
         <v>0</v>
       </c>
       <c r="E1458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1459">
@@ -31070,7 +31070,7 @@
         <v>0</v>
       </c>
       <c r="E1459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1460">
@@ -31091,7 +31091,7 @@
         <v>0</v>
       </c>
       <c r="E1460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1461">
@@ -31112,7 +31112,7 @@
         <v>0</v>
       </c>
       <c r="E1461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1462">
@@ -31133,7 +31133,7 @@
         <v>0</v>
       </c>
       <c r="E1462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1463">
@@ -31154,7 +31154,7 @@
         <v>0</v>
       </c>
       <c r="E1463" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1464">
@@ -31175,7 +31175,7 @@
         <v>0</v>
       </c>
       <c r="E1464" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1465">
@@ -31196,7 +31196,7 @@
         <v>0</v>
       </c>
       <c r="E1465" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1466">
@@ -31217,7 +31217,7 @@
         <v>0</v>
       </c>
       <c r="E1466" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1467">
@@ -31238,7 +31238,7 @@
         <v>0</v>
       </c>
       <c r="E1467" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1468">
@@ -31259,7 +31259,7 @@
         <v>0</v>
       </c>
       <c r="E1468" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1469">
@@ -31280,7 +31280,7 @@
         <v>0</v>
       </c>
       <c r="E1469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1470">
@@ -31301,7 +31301,7 @@
         <v>0</v>
       </c>
       <c r="E1470" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1471">
@@ -31322,7 +31322,7 @@
         <v>0</v>
       </c>
       <c r="E1471" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1472">
@@ -31343,7 +31343,7 @@
         <v>0</v>
       </c>
       <c r="E1472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1473">
@@ -31364,7 +31364,7 @@
         <v>0</v>
       </c>
       <c r="E1473" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1474">
@@ -31385,7 +31385,7 @@
         <v>0</v>
       </c>
       <c r="E1474" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1475">
@@ -31406,7 +31406,7 @@
         <v>0</v>
       </c>
       <c r="E1475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1476">
@@ -31427,7 +31427,7 @@
         <v>0</v>
       </c>
       <c r="E1476" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1477">
@@ -31448,7 +31448,7 @@
         <v>0</v>
       </c>
       <c r="E1477" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1478">
@@ -31469,7 +31469,7 @@
         <v>0</v>
       </c>
       <c r="E1478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1479">
@@ -31490,7 +31490,7 @@
         <v>0</v>
       </c>
       <c r="E1479" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1480">
@@ -31511,7 +31511,7 @@
         <v>0</v>
       </c>
       <c r="E1480" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1481">
@@ -31532,7 +31532,7 @@
         <v>0</v>
       </c>
       <c r="E1481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1482">
@@ -31553,7 +31553,7 @@
         <v>0</v>
       </c>
       <c r="E1482" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1483">
@@ -31574,7 +31574,7 @@
         <v>0</v>
       </c>
       <c r="E1483" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1484">
@@ -31595,7 +31595,7 @@
         <v>0</v>
       </c>
       <c r="E1484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1485">
@@ -31616,7 +31616,7 @@
         <v>0</v>
       </c>
       <c r="E1485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1486">
@@ -31637,7 +31637,7 @@
         <v>0</v>
       </c>
       <c r="E1486" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1487">
@@ -31658,7 +31658,7 @@
         <v>0</v>
       </c>
       <c r="E1487" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1488">
@@ -31679,7 +31679,7 @@
         <v>0</v>
       </c>
       <c r="E1488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1489">
@@ -31700,7 +31700,7 @@
         <v>0</v>
       </c>
       <c r="E1489" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1490">
@@ -31721,7 +31721,7 @@
         <v>0</v>
       </c>
       <c r="E1490" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1491">
@@ -31742,7 +31742,7 @@
         <v>0</v>
       </c>
       <c r="E1491" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1492">
@@ -31763,7 +31763,7 @@
         <v>0</v>
       </c>
       <c r="E1492" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1493">
@@ -31784,7 +31784,7 @@
         <v>0</v>
       </c>
       <c r="E1493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1494">
@@ -31805,7 +31805,7 @@
         <v>0</v>
       </c>
       <c r="E1494" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1495">
@@ -31826,7 +31826,7 @@
         <v>0</v>
       </c>
       <c r="E1495" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1496">
@@ -31847,7 +31847,7 @@
         <v>0</v>
       </c>
       <c r="E1496" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1497">
@@ -31868,7 +31868,7 @@
         <v>0</v>
       </c>
       <c r="E1497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1498">
@@ -31889,7 +31889,7 @@
         <v>0</v>
       </c>
       <c r="E1498" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1499">
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="E1499" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1500">
@@ -31931,7 +31931,7 @@
         <v>0</v>
       </c>
       <c r="E1500" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1501">
@@ -31952,7 +31952,7 @@
         <v>0</v>
       </c>
       <c r="E1501" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1502">
@@ -31973,7 +31973,7 @@
         <v>0</v>
       </c>
       <c r="E1502" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1503">
@@ -31994,7 +31994,7 @@
         <v>0</v>
       </c>
       <c r="E1503" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1504">
@@ -32015,7 +32015,7 @@
         <v>0</v>
       </c>
       <c r="E1504" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1505">
@@ -32036,7 +32036,7 @@
         <v>0</v>
       </c>
       <c r="E1505" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1506">
@@ -32057,7 +32057,7 @@
         <v>0</v>
       </c>
       <c r="E1506" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1507">
@@ -32078,7 +32078,7 @@
         <v>0</v>
       </c>
       <c r="E1507" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1508">
@@ -32099,7 +32099,7 @@
         <v>0</v>
       </c>
       <c r="E1508" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1509">
@@ -32120,7 +32120,7 @@
         <v>0</v>
       </c>
       <c r="E1509" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1510">
@@ -32141,7 +32141,7 @@
         <v>0</v>
       </c>
       <c r="E1510" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1511">
@@ -32162,7 +32162,7 @@
         <v>0</v>
       </c>
       <c r="E1511" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1512">
@@ -32183,7 +32183,7 @@
         <v>0</v>
       </c>
       <c r="E1512" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1513">
@@ -32204,7 +32204,7 @@
         <v>0</v>
       </c>
       <c r="E1513" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1514">
@@ -32225,7 +32225,7 @@
         <v>0</v>
       </c>
       <c r="E1514" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1515">
@@ -32246,7 +32246,7 @@
         <v>0</v>
       </c>
       <c r="E1515" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1516">
@@ -32267,7 +32267,7 @@
         <v>0</v>
       </c>
       <c r="E1516" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1517">
@@ -32288,7 +32288,7 @@
         <v>0</v>
       </c>
       <c r="E1517" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1518">
@@ -32309,7 +32309,7 @@
         <v>0</v>
       </c>
       <c r="E1518" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1519">
@@ -32330,7 +32330,7 @@
         <v>0</v>
       </c>
       <c r="E1519" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1520">
@@ -32351,7 +32351,7 @@
         <v>0</v>
       </c>
       <c r="E1520" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1521">
@@ -32372,7 +32372,7 @@
         <v>0</v>
       </c>
       <c r="E1521" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1522">
@@ -32393,7 +32393,7 @@
         <v>0</v>
       </c>
       <c r="E1522" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1523">
@@ -32414,7 +32414,7 @@
         <v>0</v>
       </c>
       <c r="E1523" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1524">
@@ -32435,7 +32435,7 @@
         <v>0</v>
       </c>
       <c r="E1524" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1525">
@@ -32456,7 +32456,7 @@
         <v>0</v>
       </c>
       <c r="E1525" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1526">
@@ -32477,7 +32477,7 @@
         <v>0</v>
       </c>
       <c r="E1526" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1527">
@@ -32498,7 +32498,7 @@
         <v>0</v>
       </c>
       <c r="E1527" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1528">
@@ -32519,7 +32519,7 @@
         <v>0</v>
       </c>
       <c r="E1528" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1529">
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="E1529" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1530">
@@ -32561,7 +32561,7 @@
         <v>0</v>
       </c>
       <c r="E1530" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1531">
@@ -32582,7 +32582,7 @@
         <v>0</v>
       </c>
       <c r="E1531" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1532">
@@ -32603,7 +32603,7 @@
         <v>0</v>
       </c>
       <c r="E1532" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1533">
@@ -32624,7 +32624,7 @@
         <v>0</v>
       </c>
       <c r="E1533" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1534">
@@ -32645,7 +32645,7 @@
         <v>0</v>
       </c>
       <c r="E1534" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1535">
@@ -32666,7 +32666,7 @@
         <v>0</v>
       </c>
       <c r="E1535" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1536">
@@ -32687,7 +32687,7 @@
         <v>0</v>
       </c>
       <c r="E1536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1537">
@@ -32708,7 +32708,7 @@
         <v>0</v>
       </c>
       <c r="E1537" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1538">
@@ -32729,7 +32729,7 @@
         <v>0</v>
       </c>
       <c r="E1538" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1539">
@@ -32750,7 +32750,7 @@
         <v>0</v>
       </c>
       <c r="E1539" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1540">
@@ -32771,7 +32771,7 @@
         <v>0</v>
       </c>
       <c r="E1540" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1541">
@@ -32792,7 +32792,7 @@
         <v>0</v>
       </c>
       <c r="E1541" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1542">
@@ -32813,7 +32813,7 @@
         <v>0</v>
       </c>
       <c r="E1542" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1543">
@@ -32834,7 +32834,7 @@
         <v>0</v>
       </c>
       <c r="E1543" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1544">
@@ -32855,7 +32855,7 @@
         <v>0</v>
       </c>
       <c r="E1544" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1545">
@@ -32876,7 +32876,7 @@
         <v>0</v>
       </c>
       <c r="E1545" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1546">
@@ -32897,7 +32897,7 @@
         <v>0</v>
       </c>
       <c r="E1546" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1547">
@@ -32918,7 +32918,7 @@
         <v>0</v>
       </c>
       <c r="E1547" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1548">
@@ -32939,7 +32939,7 @@
         <v>0</v>
       </c>
       <c r="E1548" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1549">
@@ -32960,7 +32960,7 @@
         <v>0</v>
       </c>
       <c r="E1549" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1550">
@@ -32981,7 +32981,7 @@
         <v>0</v>
       </c>
       <c r="E1550" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1551">
@@ -33002,7 +33002,7 @@
         <v>0</v>
       </c>
       <c r="E1551" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1552">
@@ -33023,7 +33023,7 @@
         <v>0</v>
       </c>
       <c r="E1552" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1553">
@@ -33044,7 +33044,7 @@
         <v>0</v>
       </c>
       <c r="E1553" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1554">
@@ -33065,7 +33065,7 @@
         <v>0</v>
       </c>
       <c r="E1554" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1555">
@@ -33086,7 +33086,7 @@
         <v>0</v>
       </c>
       <c r="E1555" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1556">
@@ -33107,7 +33107,7 @@
         <v>0</v>
       </c>
       <c r="E1556" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1557">
@@ -33128,7 +33128,7 @@
         <v>0</v>
       </c>
       <c r="E1557" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1558">
@@ -33149,7 +33149,7 @@
         <v>0</v>
       </c>
       <c r="E1558" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1559">
@@ -33170,7 +33170,7 @@
         <v>0</v>
       </c>
       <c r="E1559" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1560">
@@ -33191,7 +33191,7 @@
         <v>0</v>
       </c>
       <c r="E1560" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1561">
@@ -33212,7 +33212,7 @@
         <v>0</v>
       </c>
       <c r="E1561" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1562">
@@ -33233,7 +33233,7 @@
         <v>0</v>
       </c>
       <c r="E1562" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1563">
@@ -33254,7 +33254,7 @@
         <v>0</v>
       </c>
       <c r="E1563" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1564">
@@ -33275,7 +33275,7 @@
         <v>0</v>
       </c>
       <c r="E1564" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1565">
@@ -33296,7 +33296,7 @@
         <v>0</v>
       </c>
       <c r="E1565" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1566">
@@ -33317,7 +33317,7 @@
         <v>0</v>
       </c>
       <c r="E1566" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1567">
@@ -33338,7 +33338,7 @@
         <v>0</v>
       </c>
       <c r="E1567" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1568">
@@ -33359,7 +33359,7 @@
         <v>0</v>
       </c>
       <c r="E1568" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1569">
@@ -33380,7 +33380,7 @@
         <v>0</v>
       </c>
       <c r="E1569" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1570">
@@ -33401,7 +33401,7 @@
         <v>0</v>
       </c>
       <c r="E1570" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1571">
@@ -33422,7 +33422,7 @@
         <v>0</v>
       </c>
       <c r="E1571" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1572">
@@ -33443,7 +33443,7 @@
         <v>0</v>
       </c>
       <c r="E1572" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1573">
@@ -33464,7 +33464,7 @@
         <v>0</v>
       </c>
       <c r="E1573" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1574">
@@ -33485,7 +33485,7 @@
         <v>0</v>
       </c>
       <c r="E1574" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1575">
@@ -33506,7 +33506,7 @@
         <v>0</v>
       </c>
       <c r="E1575" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1576">
@@ -33527,7 +33527,7 @@
         <v>0</v>
       </c>
       <c r="E1576" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1577">
@@ -33548,7 +33548,7 @@
         <v>0</v>
       </c>
       <c r="E1577" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1578">
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="E1578" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1579">
@@ -33590,7 +33590,7 @@
         <v>0</v>
       </c>
       <c r="E1579" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1580">
@@ -33611,7 +33611,7 @@
         <v>0</v>
       </c>
       <c r="E1580" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1581">
@@ -33632,7 +33632,7 @@
         <v>0</v>
       </c>
       <c r="E1581" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1582">
@@ -33653,7 +33653,7 @@
         <v>0</v>
       </c>
       <c r="E1582" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1583">
@@ -33674,7 +33674,7 @@
         <v>0</v>
       </c>
       <c r="E1583" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1584">
@@ -33695,7 +33695,7 @@
         <v>0</v>
       </c>
       <c r="E1584" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1585">
@@ -33716,7 +33716,7 @@
         <v>0</v>
       </c>
       <c r="E1585" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1586">
@@ -33737,7 +33737,7 @@
         <v>0</v>
       </c>
       <c r="E1586" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1587">
@@ -33758,7 +33758,7 @@
         <v>0</v>
       </c>
       <c r="E1587" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1588">
@@ -33779,7 +33779,7 @@
         <v>0</v>
       </c>
       <c r="E1588" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1589">
@@ -33800,7 +33800,7 @@
         <v>0</v>
       </c>
       <c r="E1589" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1590">
@@ -33821,7 +33821,7 @@
         <v>0</v>
       </c>
       <c r="E1590" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1591">
@@ -33842,7 +33842,7 @@
         <v>0</v>
       </c>
       <c r="E1591" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1592">
@@ -33863,7 +33863,7 @@
         <v>0</v>
       </c>
       <c r="E1592" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1593">
@@ -33884,7 +33884,7 @@
         <v>0</v>
       </c>
       <c r="E1593" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1594">
@@ -33905,7 +33905,7 @@
         <v>0</v>
       </c>
       <c r="E1594" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1595">
@@ -33926,7 +33926,7 @@
         <v>0</v>
       </c>
       <c r="E1595" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1596">
@@ -33947,7 +33947,7 @@
         <v>0</v>
       </c>
       <c r="E1596" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1597">
@@ -33968,7 +33968,7 @@
         <v>0</v>
       </c>
       <c r="E1597" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1598">
@@ -33989,7 +33989,7 @@
         <v>0</v>
       </c>
       <c r="E1598" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1599">
@@ -34010,7 +34010,7 @@
         <v>0</v>
       </c>
       <c r="E1599" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1600">
@@ -34031,7 +34031,7 @@
         <v>0</v>
       </c>
       <c r="E1600" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1601">
@@ -34052,7 +34052,7 @@
         <v>0</v>
       </c>
       <c r="E1601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1602">
@@ -34073,7 +34073,7 @@
         <v>0</v>
       </c>
       <c r="E1602" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1603">
@@ -34094,7 +34094,7 @@
         <v>0</v>
       </c>
       <c r="E1603" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1604">
@@ -34115,7 +34115,7 @@
         <v>0</v>
       </c>
       <c r="E1604" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1605">
@@ -34136,7 +34136,7 @@
         <v>0</v>
       </c>
       <c r="E1605" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1606">
@@ -34157,7 +34157,7 @@
         <v>0</v>
       </c>
       <c r="E1606" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1607">
@@ -34178,7 +34178,7 @@
         <v>0</v>
       </c>
       <c r="E1607" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1608">
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="E1608" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1609">
@@ -34220,7 +34220,7 @@
         <v>0</v>
       </c>
       <c r="E1609" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1610">
@@ -34241,7 +34241,7 @@
         <v>0</v>
       </c>
       <c r="E1610" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1611">
@@ -34262,7 +34262,7 @@
         <v>0</v>
       </c>
       <c r="E1611" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1612">
@@ -34283,7 +34283,7 @@
         <v>0</v>
       </c>
       <c r="E1612" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1613">
@@ -34304,7 +34304,7 @@
         <v>0</v>
       </c>
       <c r="E1613" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1614">
@@ -34325,7 +34325,7 @@
         <v>0</v>
       </c>
       <c r="E1614" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1615">
@@ -34346,7 +34346,7 @@
         <v>0</v>
       </c>
       <c r="E1615" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1616">
